--- a/Vision 1.0/PythonExport.xlsx
+++ b/Vision 1.0/PythonExport.xlsx
@@ -15,15 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>PERSON_ID</t>
-  </si>
-  <si>
-    <t>USER60</t>
-  </si>
-  <si>
-    <t>1615928</t>
+    <t>ERS_EMPLOYEE_ID</t>
   </si>
 </sst>
 </file>
@@ -372,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,19 +374,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s"/>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
